--- a/data/trans_orig/IP3104-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP3104-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD46393-EA74-47F6-8C92-8A58837E89EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1D003A3-11E0-4EAC-BFAF-FC4001417F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BAAFD40-A293-4750-9B25-BC98486E4ED3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A6665B5-E4A9-4149-8F09-0CF980BA8CDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="721">
   <si>
     <t>Menores según la frecuencia de tomar huevos en 2007 (Tasa respuesta: 92,59%)</t>
   </si>
@@ -125,2107 +125,2083 @@
     <t>5,88%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar huevos en 2012 (Tasa respuesta: 90,04%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar huevos en 2016 (Tasa respuesta: 92,29%)</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar huevos en 2023 (Tasa respuesta: 96,61%)</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar huevos en 2012 (Tasa respuesta: 90,04%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar huevos en 2015 (Tasa respuesta: 92,29%)</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar huevos en 2023 (Tasa respuesta: 96,61%)</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4588021B-AE17-42FE-B979-FCBE06D5DD47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B5E9B-D9A7-4285-9077-D4F89138C62F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3738,10 +3714,10 @@
         <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3753,10 +3729,10 @@
         <v>111</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3788,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3830,7 +3806,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3845,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3860,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3851,13 @@
         <v>7258</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -3890,13 +3866,13 @@
         <v>7382</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -3908,10 +3884,10 @@
         <v>33</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3902,13 @@
         <v>82554</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H27" s="7">
         <v>129</v>
@@ -3941,13 +3917,13 @@
         <v>87894</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M27" s="7">
         <v>253</v>
@@ -3956,13 +3932,13 @@
         <v>170448</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3953,13 @@
         <v>38886</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -3992,13 +3968,13 @@
         <v>45080</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M28" s="7">
         <v>122</v>
@@ -4007,13 +3983,13 @@
         <v>83967</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4004,13 @@
         <v>11986</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -4043,13 +4019,13 @@
         <v>14790</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -4058,13 +4034,13 @@
         <v>26777</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4055,13 @@
         <v>1350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -4094,13 +4070,13 @@
         <v>2881</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -4109,13 +4085,13 @@
         <v>4231</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4165,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4204,7 +4180,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4219,7 +4195,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4210,13 @@
         <v>46423</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>55</v>
@@ -4249,13 +4225,13 @@
         <v>36137</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M33" s="7">
         <v>124</v>
@@ -4264,13 +4240,13 @@
         <v>82560</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4261,13 @@
         <v>364661</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H34" s="7">
         <v>518</v>
@@ -4300,13 +4276,13 @@
         <v>348692</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>1069</v>
@@ -4315,13 +4291,13 @@
         <v>713352</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4312,13 @@
         <v>184322</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H35" s="7">
         <v>258</v>
@@ -4351,13 +4327,13 @@
         <v>172171</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M35" s="7">
         <v>535</v>
@@ -4366,13 +4342,13 @@
         <v>356493</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4363,13 @@
         <v>61608</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H36" s="7">
         <v>91</v>
@@ -4402,13 +4378,13 @@
         <v>60791</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M36" s="7">
         <v>182</v>
@@ -4417,13 +4393,13 @@
         <v>122399</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4414,13 @@
         <v>13535</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -4453,13 +4429,13 @@
         <v>12429</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>38</v>
@@ -4468,13 +4444,13 @@
         <v>25964</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,7 +4506,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4550,7 +4526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C892A1-9A4F-45BB-B5B6-BDE6214042B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEDB959-93D1-4A35-BBBD-1AE755C1443C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4567,7 +4543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5025,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5040,7 +5016,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5055,7 +5031,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5046,13 @@
         <v>12131</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5085,13 +5061,13 @@
         <v>6204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -5100,13 +5076,13 @@
         <v>18335</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5097,13 @@
         <v>45098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -5136,13 +5112,13 @@
         <v>44866</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -5151,13 +5127,13 @@
         <v>89964</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5148,13 @@
         <v>19541</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>34</v>
@@ -5187,13 +5163,13 @@
         <v>22472</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -5202,13 +5178,13 @@
         <v>42013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5199,13 @@
         <v>1973</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -5238,13 +5214,13 @@
         <v>9151</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M15" s="7">
         <v>16</v>
@@ -5253,13 +5229,13 @@
         <v>11124</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5250,13 @@
         <v>3256</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5289,13 +5265,13 @@
         <v>2840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5304,13 +5280,13 @@
         <v>6096</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,7 +5360,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5414,7 +5390,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,10 +5408,10 @@
         <v>27</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -5444,13 +5420,13 @@
         <v>18561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -5459,13 +5435,13 @@
         <v>44615</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5456,13 @@
         <v>224296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>297</v>
@@ -5495,13 +5471,13 @@
         <v>208312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>621</v>
@@ -5510,13 +5486,13 @@
         <v>432607</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5507,13 @@
         <v>139075</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>178</v>
@@ -5546,13 +5522,13 @@
         <v>121671</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>376</v>
@@ -5561,13 +5537,13 @@
         <v>260745</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5558,13 @@
         <v>41173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -5597,13 +5573,13 @@
         <v>41615</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -5612,13 +5588,13 @@
         <v>82788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5609,13 @@
         <v>12264</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -5648,13 +5624,13 @@
         <v>15701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -5663,13 +5639,13 @@
         <v>27965</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>301</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,7 +5701,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5743,7 +5719,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5758,7 +5734,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5773,7 +5749,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5764,13 @@
         <v>9129</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -5803,13 +5779,13 @@
         <v>8264</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>24</v>
@@ -5818,13 +5794,13 @@
         <v>17393</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>312</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5815,13 @@
         <v>74776</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H27" s="7">
         <v>108</v>
@@ -5854,13 +5830,13 @@
         <v>76103</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M27" s="7">
         <v>211</v>
@@ -5869,13 +5845,13 @@
         <v>150878</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5866,13 @@
         <v>49667</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>72</v>
@@ -5905,13 +5881,13 @@
         <v>51343</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -5920,13 +5896,13 @@
         <v>101010</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5917,13 @@
         <v>14577</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -5956,13 +5932,13 @@
         <v>7127</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -5971,13 +5947,13 @@
         <v>21704</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5968,13 @@
         <v>3195</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>333</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -6007,13 +5983,13 @@
         <v>7111</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -6022,13 +5998,13 @@
         <v>10306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>113</v>
+        <v>338</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6117,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6132,7 +6108,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6123,13 @@
         <v>47314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c r="H33" s="7">
         <v>49</v>
@@ -6162,13 +6138,13 @@
         <v>33029</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="M33" s="7">
         <v>115</v>
@@ -6177,13 +6153,13 @@
         <v>80343</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6174,13 @@
         <v>344811</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H34" s="7">
         <v>469</v>
@@ -6213,13 +6189,13 @@
         <v>329279</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M34" s="7">
         <v>960</v>
@@ -6228,13 +6204,13 @@
         <v>674089</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6225,13 @@
         <v>208283</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H35" s="7">
         <v>284</v>
@@ -6264,13 +6240,13 @@
         <v>195485</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M35" s="7">
         <v>583</v>
@@ -6279,13 +6255,13 @@
         <v>403768</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6276,13 @@
         <v>57724</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H36" s="7">
         <v>85</v>
@@ -6315,13 +6291,13 @@
         <v>57893</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="M36" s="7">
         <v>169</v>
@@ -6330,13 +6306,13 @@
         <v>115616</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>218</v>
+        <v>372</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6327,13 @@
         <v>18715</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H37" s="7">
         <v>36</v>
@@ -6366,13 +6342,13 @@
         <v>25652</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
@@ -6381,13 +6357,13 @@
         <v>44368</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6419,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6463,7 +6439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7BC108-32DF-4C4D-A068-31C6F7BA28B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64992FE-F3D9-45C7-82D9-71FD2EA88B96}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6480,7 +6456,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6910,7 +6886,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6925,7 +6901,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6940,7 +6916,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6931,13 @@
         <v>3868</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6970,13 +6946,13 @@
         <v>2424</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -6985,13 +6961,13 @@
         <v>6293</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +6982,13 @@
         <v>12312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7021,13 +6997,13 @@
         <v>12424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -7036,13 +7012,13 @@
         <v>24736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7033,13 @@
         <v>23618</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -7072,13 +7048,13 @@
         <v>19858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -7087,13 +7063,13 @@
         <v>43475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7084,13 @@
         <v>15667</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H15" s="7">
         <v>23</v>
@@ -7123,13 +7099,13 @@
         <v>14978</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -7138,13 +7114,13 @@
         <v>30645</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7135,13 @@
         <v>11829</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -7174,13 +7150,13 @@
         <v>6471</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>423</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7189,13 +7165,13 @@
         <v>18299</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +7245,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7284,7 +7260,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7314,13 +7290,13 @@
         <v>10120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>433</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -7329,13 +7305,13 @@
         <v>14201</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>436</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -7344,13 +7320,13 @@
         <v>24321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,13 +7341,13 @@
         <v>165704</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>234</v>
@@ -7380,13 +7356,13 @@
         <v>160019</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>470</v>
@@ -7395,13 +7371,13 @@
         <v>325723</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>447</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7392,13 @@
         <v>166233</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H21" s="7">
         <v>228</v>
@@ -7431,13 +7407,13 @@
         <v>151894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>460</v>
@@ -7446,13 +7422,13 @@
         <v>318127</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7443,13 @@
         <v>72422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -7482,13 +7458,13 @@
         <v>72870</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -7497,13 +7473,13 @@
         <v>145292</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7494,13 @@
         <v>42921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H23" s="7">
         <v>60</v>
@@ -7533,13 +7509,13 @@
         <v>38418</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>122</v>
@@ -7548,13 +7524,13 @@
         <v>81340</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,7 +7586,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7628,7 +7604,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7643,7 +7619,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7658,7 +7634,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +7649,13 @@
         <v>6308</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -7688,13 +7664,13 @@
         <v>7503</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>108</v>
+        <v>477</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -7703,13 +7679,13 @@
         <v>13812</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7700,13 @@
         <v>72519</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H27" s="7">
         <v>102</v>
@@ -7739,13 +7715,13 @@
         <v>69674</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M27" s="7">
         <v>208</v>
@@ -7754,13 +7730,13 @@
         <v>142193</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7751,13 @@
         <v>57501</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -7790,13 +7766,13 @@
         <v>50865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M28" s="7">
         <v>159</v>
@@ -7805,13 +7781,13 @@
         <v>108367</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7802,13 @@
         <v>21234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -7841,13 +7817,13 @@
         <v>25128</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M29" s="7">
         <v>68</v>
@@ -7856,13 +7832,13 @@
         <v>46362</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>333</v>
+        <v>505</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7853,13 @@
         <v>10460</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>511</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7892,13 +7868,13 @@
         <v>3576</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>513</v>
+        <v>386</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -7907,13 +7883,13 @@
         <v>14037</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,7 +7963,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8002,7 +7978,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8017,7 +7993,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +8008,13 @@
         <v>20297</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>515</v>
+        <v>378</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>516</v>
+        <v>206</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>297</v>
+        <v>512</v>
       </c>
       <c r="H33" s="7">
         <v>38</v>
@@ -8047,13 +8023,13 @@
         <v>24128</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>517</v>
+        <v>433</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M33" s="7">
         <v>67</v>
@@ -8065,10 +8041,10 @@
         <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>519</v>
+        <v>381</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8059,13 @@
         <v>250535</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H34" s="7">
         <v>354</v>
@@ -8098,13 +8074,13 @@
         <v>242117</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M34" s="7">
         <v>714</v>
@@ -8113,13 +8089,13 @@
         <v>492651</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8110,13 @@
         <v>247352</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H35" s="7">
         <v>336</v>
@@ -8149,13 +8125,13 @@
         <v>222616</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M35" s="7">
         <v>681</v>
@@ -8164,13 +8140,13 @@
         <v>469969</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,13 +8161,13 @@
         <v>109323</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H36" s="7">
         <v>172</v>
@@ -8200,13 +8176,13 @@
         <v>112976</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M36" s="7">
         <v>330</v>
@@ -8215,13 +8191,13 @@
         <v>222298</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>546</v>
+        <v>425</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>57</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,13 +8212,13 @@
         <v>65210</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H37" s="7">
         <v>75</v>
@@ -8251,13 +8227,13 @@
         <v>48466</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -8266,13 +8242,13 @@
         <v>113676</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8328,7 +8304,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8348,7 +8324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22CD919-9EF5-409E-BB3D-5D75103324BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0F8E0D-17B9-43E9-9FAF-2D960F083D5C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8365,7 +8341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8817,13 +8793,13 @@
         <v>1289</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -8832,13 +8808,13 @@
         <v>620</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>559</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -8847,13 +8823,13 @@
         <v>1909</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,13 +8844,13 @@
         <v>1621</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>562</v>
+        <v>162</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>563</v>
+        <v>302</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -8883,13 +8859,13 @@
         <v>1202</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>565</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8898,13 +8874,13 @@
         <v>2823</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8919,13 +8895,13 @@
         <v>17619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -8934,13 +8910,13 @@
         <v>18794</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -8949,13 +8925,13 @@
         <v>36413</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8970,13 +8946,13 @@
         <v>17853</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>579</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -8985,13 +8961,13 @@
         <v>11369</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -9000,13 +8976,13 @@
         <v>29222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9021,13 +8997,13 @@
         <v>12965</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -9036,13 +9012,13 @@
         <v>13721</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="M15" s="7">
         <v>34</v>
@@ -9051,13 +9027,13 @@
         <v>26686</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>368</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9069,16 +9045,16 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -9087,13 +9063,13 @@
         <v>4448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>588</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -9102,13 +9078,13 @@
         <v>8614</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>483</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9120,7 +9096,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
@@ -9176,13 +9152,13 @@
         <v>5109</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>392</v>
+        <v>590</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -9191,13 +9167,13 @@
         <v>7423</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>592</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>600</v>
+        <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>601</v>
+        <v>162</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -9206,13 +9182,13 @@
         <v>12532</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>603</v>
+        <v>212</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9227,13 +9203,13 @@
         <v>20097</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>161</v>
+        <v>514</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -9242,13 +9218,13 @@
         <v>19371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -9257,13 +9233,13 @@
         <v>39468</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>608</v>
+        <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>435</v>
+        <v>599</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>609</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9278,13 +9254,13 @@
         <v>153474</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="H20" s="7">
         <v>227</v>
@@ -9293,13 +9269,13 @@
         <v>148015</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="M20" s="7">
         <v>420</v>
@@ -9308,13 +9284,13 @@
         <v>301489</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9329,13 +9305,13 @@
         <v>161492</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="H21" s="7">
         <v>194</v>
@@ -9344,13 +9320,13 @@
         <v>133133</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>96</v>
+        <v>613</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>239</v>
+        <v>614</v>
       </c>
       <c r="M21" s="7">
         <v>421</v>
@@ -9359,13 +9335,13 @@
         <v>294626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9380,13 +9356,13 @@
         <v>125275</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="H22" s="7">
         <v>129</v>
@@ -9395,13 +9371,13 @@
         <v>111614</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="M22" s="7">
         <v>285</v>
@@ -9410,13 +9386,13 @@
         <v>236889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>632</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9431,13 +9407,13 @@
         <v>15879</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>634</v>
+        <v>599</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>626</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>635</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -9446,13 +9422,13 @@
         <v>21698</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -9461,13 +9437,13 @@
         <v>37577</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9523,7 +9499,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -9535,13 +9511,13 @@
         <v>3054</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -9550,13 +9526,13 @@
         <v>2097</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>645</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -9565,13 +9541,13 @@
         <v>5151</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9586,13 +9562,13 @@
         <v>6813</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>650</v>
+        <v>257</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -9601,13 +9577,13 @@
         <v>4579</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>651</v>
+        <v>205</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>514</v>
+        <v>643</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -9616,13 +9592,13 @@
         <v>11392</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>207</v>
+        <v>644</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9637,13 +9613,13 @@
         <v>52358</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="H27" s="7">
         <v>85</v>
@@ -9652,13 +9628,13 @@
         <v>54400</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>659</v>
+        <v>237</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="M27" s="7">
         <v>157</v>
@@ -9667,13 +9643,13 @@
         <v>106758</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9688,13 +9664,13 @@
         <v>82368</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="H28" s="7">
         <v>94</v>
@@ -9703,13 +9679,13 @@
         <v>63091</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="M28" s="7">
         <v>202</v>
@@ -9718,13 +9694,13 @@
         <v>145459</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9739,13 +9715,13 @@
         <v>21620</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -9754,13 +9730,13 @@
         <v>17511</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="M29" s="7">
         <v>58</v>
@@ -9769,13 +9745,13 @@
         <v>39131</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9790,13 +9766,13 @@
         <v>6281</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>682</v>
+        <v>290</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>683</v>
+        <v>462</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -9805,13 +9781,13 @@
         <v>6352</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>297</v>
+        <v>672</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -9823,10 +9799,10 @@
         <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9894,13 +9870,13 @@
         <v>9451</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -9909,13 +9885,13 @@
         <v>10140</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="M32" s="7">
         <v>28</v>
@@ -9924,13 +9900,13 @@
         <v>19591</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>116</v>
+        <v>683</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>340</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9945,13 +9921,13 @@
         <v>28531</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>697</v>
+        <v>645</v>
       </c>
       <c r="H33" s="7">
         <v>38</v>
@@ -9960,13 +9936,13 @@
         <v>26323</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="M33" s="7">
         <v>78</v>
@@ -9975,13 +9951,13 @@
         <v>54854</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>122</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9996,13 +9972,13 @@
         <v>223451</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>405</v>
+        <v>695</v>
       </c>
       <c r="H34" s="7">
         <v>336</v>
@@ -10011,13 +9987,13 @@
         <v>221209</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>706</v>
+        <v>498</v>
       </c>
       <c r="M34" s="7">
         <v>627</v>
@@ -10026,13 +10002,13 @@
         <v>444660</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>444</v>
+        <v>698</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10047,13 +10023,13 @@
         <v>261713</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="H35" s="7">
         <v>305</v>
@@ -10062,13 +10038,13 @@
         <v>207594</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M35" s="7">
         <v>665</v>
@@ -10077,13 +10053,13 @@
         <v>469307</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>715</v>
+        <v>146</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10098,13 +10074,13 @@
         <v>159860</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>93</v>
+        <v>710</v>
       </c>
       <c r="H36" s="7">
         <v>173</v>
@@ -10113,13 +10089,13 @@
         <v>142846</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="M36" s="7">
         <v>377</v>
@@ -10128,13 +10104,13 @@
         <v>302706</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10149,13 +10125,13 @@
         <v>26327</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>725</v>
+        <v>344</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -10164,13 +10140,13 @@
         <v>32497</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>635</v>
+        <v>347</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>155</v>
+        <v>719</v>
       </c>
       <c r="M37" s="7">
         <v>80</v>
@@ -10179,13 +10155,13 @@
         <v>58824</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>727</v>
+        <v>295</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10241,7 +10217,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
